--- a/API/Reports/ValidatedContractsReport.xlsx
+++ b/API/Reports/ValidatedContractsReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>RC, INC</t>
-  </si>
-  <si>
-    <t>RC</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,56 +393,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0">
-        <v>350</v>
-      </c>
-      <c r="F5" s="0">
-        <v>7</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="0">
-        <v>4</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="0">
-        <v>5</v>
-      </c>
-      <c r="N5" s="0">
-        <v>8000</v>
-      </c>
-      <c r="O5" s="0">
-        <v>19000</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/API/Reports/ValidatedContractsReport.xlsx
+++ b/API/Reports/ValidatedContractsReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -95,10 +95,19 @@
     <t>206</t>
   </si>
   <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>RC, INC</t>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>103 tu 4116</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>RC, INC, VOL</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
     <col min="13" max="13" width="12.825828552246094" customWidth="1"/>
     <col min="14" max="14" width="12.383864402770996" customWidth="1"/>
     <col min="15" max="15" width="16.463848114013672" customWidth="1"/>
-    <col min="16" max="16" width="11.06922435760498" customWidth="1"/>
+    <col min="16" max="16" width="11.721940994262695" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,19 +351,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0">
-        <v>2250</v>
+        <v>2920</v>
       </c>
       <c r="F4" s="0">
         <v>7</v>
@@ -363,10 +372,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J4" s="0">
         <v>4</v>
@@ -375,19 +384,19 @@
         <v>23</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="0">
         <v>5</v>
       </c>
       <c r="N4" s="0">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O4" s="0">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="0">
         <v>1</v>
